--- a/modified_tables/table_7.xlsx
+++ b/modified_tables/table_7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Year</t>
   </si>
@@ -28,40 +28,109 @@
     <t>2017</t>
   </si>
   <si>
-    <t>Banking organizations</t>
-  </si>
-  <si>
-    <t>1,398,557</t>
-  </si>
-  <si>
-    <t>1,619,579</t>
-  </si>
-  <si>
-    <t>1,731,872</t>
-  </si>
-  <si>
-    <t>Academic and other organizations</t>
-  </si>
-  <si>
-    <t>678,419</t>
-  </si>
-  <si>
-    <t>676,948</t>
-  </si>
-  <si>
-    <t>677,023</t>
-  </si>
-  <si>
-    <t>Total costs</t>
-  </si>
-  <si>
-    <t>2,076,976</t>
-  </si>
-  <si>
-    <t>2,296,527</t>
-  </si>
-  <si>
-    <t>2,408,895</t>
+    <t>Operating profit</t>
+  </si>
+  <si>
+    <t>375</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>598</t>
+  </si>
+  <si>
+    <t>Profit before taxes</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>-66</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>Net income for the year</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>Total assets</t>
+  </si>
+  <si>
+    <t>284,305</t>
+  </si>
+  <si>
+    <t>258,548</t>
+  </si>
+  <si>
+    <t>251,998</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>10,576</t>
+  </si>
+  <si>
+    <t>10,504</t>
+  </si>
+  <si>
+    <t>Tier 1 capital ratio (%)</t>
+  </si>
+  <si>
+    <t>16.7</t>
+  </si>
+  <si>
+    <t>16.3</t>
+  </si>
+  <si>
+    <t>17.3</t>
+  </si>
+  <si>
+    <t>Wages and salaries</t>
+  </si>
+  <si>
+    <t>549</t>
+  </si>
+  <si>
+    <t>535</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>Occupational pension provision and other benefits</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>93</t>
   </si>
 </sst>
 </file>
@@ -419,13 +488,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +507,26 @@
       <c r="D1" t="s">
         <v>12</v>
       </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -452,8 +539,26 @@
       <c r="D2" t="s">
         <v>13</v>
       </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -466,8 +571,26 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -479,6 +602,24 @@
       </c>
       <c r="D4" t="s">
         <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
